--- a/ValueSet-whoatc-unicom.xlsx
+++ b/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-04T17:38:22+00:00</t>
+    <t>2022-11-05T08:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-whoatc-unicom.xlsx
+++ b/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T08:06:02+00:00</t>
+    <t>2022-11-05T08:06:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-whoatc-unicom.xlsx
+++ b/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T08:33:24+00:00</t>
+    <t>2022-11-07T08:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-whoatc-unicom.xlsx
+++ b/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T08:35:45+00:00</t>
+    <t>2022-11-07T08:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-whoatc-unicom.xlsx
+++ b/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T18:09:02+00:00</t>
+    <t>2022-11-11T18:26:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-whoatc-unicom.xlsx
+++ b/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T20:12:11+00:00</t>
+    <t>2022-11-25T20:28:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
